--- a/Documentation/Battery Calculator.xlsx
+++ b/Documentation/Battery Calculator.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\msx\bs\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29858895-8882-4896-B0C4-D714D5E872BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4B60E-5821-4DEA-B60A-D16C2CCEDE78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2550" windowWidth="28800" windowHeight="17235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v1" sheetId="3" r:id="rId1"/>
+    <sheet name="v2" sheetId="5" r:id="rId1"/>
+    <sheet name="v1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>hours</t>
   </si>
@@ -99,6 +101,9 @@
   </si>
   <si>
     <t>Sorry press event</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -512,21 +517,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D34849A-814A-4D07-8B72-66FB7BDDE4AF}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -536,55 +541,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -593,7 +598,7 @@
       <c r="D7" s="10"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -611,7 +616,187 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12">
+        <f>0.083+(((B3*1)/(B2*3600))*1.33)</f>
+        <v>8.3153935185185185E-2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="12">
+        <f>IF(B5="Y",1.097,0.0024+1.525+0.005)</f>
+        <v>1.097</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>IF(B5="Y","Current measured on current FW","Iq (BT, LDO, Charger)")</f>
+        <v>Current measured on current FW</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12">
+        <f>SUM(B8:B10)</f>
+        <v>1.3491539351851851</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <f>B2*B11*(1+B4/100)</f>
+        <v>71.235327777777769</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12">
+        <f>0.169</f>
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
@@ -629,7 +814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -645,7 +830,7 @@
         <v>Iq (BT, LDO, Charger)</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -658,7 +843,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -666,7 +851,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
@@ -679,10 +864,10 @@
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
